--- a/data/pca/factorExposure/factorExposure_2018-08-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03853231635905117</v>
+        <v>-0.02782008038008306</v>
       </c>
       <c r="C2">
-        <v>0.0426077808487289</v>
+        <v>-0.01632472489793558</v>
       </c>
       <c r="D2">
-        <v>-0.01021820802490674</v>
+        <v>0.02203388852212042</v>
       </c>
       <c r="E2">
-        <v>-0.04301650416778969</v>
+        <v>0.01577175079054613</v>
       </c>
       <c r="F2">
-        <v>0.1505523128622093</v>
+        <v>0.007184021756571508</v>
       </c>
       <c r="G2">
-        <v>-0.05997691130589427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08395349942465107</v>
+      </c>
+      <c r="H2">
+        <v>0.02221401547452196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1219393435662431</v>
+        <v>-0.08028498041461261</v>
       </c>
       <c r="C3">
-        <v>0.02501155848286973</v>
+        <v>0.01331371626310534</v>
       </c>
       <c r="D3">
-        <v>0.05530202572827549</v>
+        <v>0.02015340078761405</v>
       </c>
       <c r="E3">
-        <v>-0.07477185471676261</v>
+        <v>0.008297939761790911</v>
       </c>
       <c r="F3">
-        <v>0.3916957816726463</v>
+        <v>-0.04723936305372944</v>
       </c>
       <c r="G3">
-        <v>-0.1952080235787338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2612280192113489</v>
+      </c>
+      <c r="H3">
+        <v>0.0505930647574384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05449052564358676</v>
+        <v>-0.04820561966230965</v>
       </c>
       <c r="C4">
-        <v>0.005459763173511665</v>
+        <v>-0.003699956730850938</v>
       </c>
       <c r="D4">
-        <v>-0.0360198206953173</v>
+        <v>0.0413858977543483</v>
       </c>
       <c r="E4">
-        <v>-0.06481660224697372</v>
+        <v>-0.01811630844762963</v>
       </c>
       <c r="F4">
-        <v>0.08208889271568197</v>
+        <v>0.04899432818026236</v>
       </c>
       <c r="G4">
-        <v>-0.05354754877292019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0591074258453305</v>
+      </c>
+      <c r="H4">
+        <v>0.03146133097140334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01390190878419346</v>
+        <v>-0.02594364918929978</v>
       </c>
       <c r="C6">
-        <v>0.01094040171472781</v>
+        <v>-0.004002878555106155</v>
       </c>
       <c r="D6">
-        <v>0.008200622758951</v>
+        <v>0.05147906058459605</v>
       </c>
       <c r="E6">
-        <v>-0.02091296633679682</v>
+        <v>-0.003612409831322754</v>
       </c>
       <c r="F6">
-        <v>0.0161465799652214</v>
+        <v>0.03240307632813715</v>
       </c>
       <c r="G6">
-        <v>0.004274033246403918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01967189934226584</v>
+      </c>
+      <c r="H6">
+        <v>0.05272111349080127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02571276970890584</v>
+        <v>-0.0201318911367855</v>
       </c>
       <c r="C7">
-        <v>0.03249037330320015</v>
+        <v>-0.003209323781271771</v>
       </c>
       <c r="D7">
-        <v>0.005861318381470393</v>
+        <v>0.02304565777338944</v>
       </c>
       <c r="E7">
-        <v>-0.03455123689428587</v>
+        <v>-0.03339886093373534</v>
       </c>
       <c r="F7">
-        <v>0.05600894374854971</v>
+        <v>0.01076657845371006</v>
       </c>
       <c r="G7">
-        <v>-0.05941379903903011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03675076793531456</v>
+      </c>
+      <c r="H7">
+        <v>0.01756409260146534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01926414114493997</v>
+        <v>-0.007103093306019847</v>
       </c>
       <c r="C8">
-        <v>-0.004390189995882101</v>
+        <v>0.002453888632910844</v>
       </c>
       <c r="D8">
-        <v>-0.0111826588965546</v>
+        <v>0.01111022548804744</v>
       </c>
       <c r="E8">
-        <v>-0.06588803474696329</v>
+        <v>-0.01008064186230073</v>
       </c>
       <c r="F8">
-        <v>0.09265862693110838</v>
+        <v>0.02073805475019688</v>
       </c>
       <c r="G8">
-        <v>-0.07106478992681289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05912153365483599</v>
+      </c>
+      <c r="H8">
+        <v>0.01136549530425226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04572317518689729</v>
+        <v>-0.04018043726101902</v>
       </c>
       <c r="C9">
-        <v>-0.007306094310030009</v>
+        <v>0.0007963941018186943</v>
       </c>
       <c r="D9">
-        <v>-0.03011060602349664</v>
+        <v>0.0331823318269721</v>
       </c>
       <c r="E9">
-        <v>-0.06348078456593913</v>
+        <v>-0.0166004132884812</v>
       </c>
       <c r="F9">
-        <v>0.07615190449614817</v>
+        <v>0.02498499224126449</v>
       </c>
       <c r="G9">
-        <v>-0.04881924128768908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06430624365778302</v>
+      </c>
+      <c r="H9">
+        <v>0.02907016771991595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04010413647385789</v>
+        <v>-0.1007735522374295</v>
       </c>
       <c r="C10">
-        <v>-0.007893360598224423</v>
+        <v>0.03175804638477788</v>
       </c>
       <c r="D10">
-        <v>-0.02601755017949114</v>
+        <v>-0.1521541023447346</v>
       </c>
       <c r="E10">
-        <v>0.1122392172059274</v>
+        <v>0.00741582000695368</v>
       </c>
       <c r="F10">
-        <v>0.06374619026603305</v>
+        <v>-0.04860981585917485</v>
       </c>
       <c r="G10">
-        <v>0.01444982996490909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02077466904791159</v>
+      </c>
+      <c r="H10">
+        <v>0.001571232283839809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03489888316922251</v>
+        <v>-0.02187906654514733</v>
       </c>
       <c r="C11">
-        <v>0.01815366074113706</v>
+        <v>0.008413570426322263</v>
       </c>
       <c r="D11">
-        <v>-0.001544452441504987</v>
+        <v>0.03673098609031814</v>
       </c>
       <c r="E11">
-        <v>-0.03403039970417247</v>
+        <v>0.005257307052700417</v>
       </c>
       <c r="F11">
-        <v>0.03561171376461474</v>
+        <v>0.0113176858226101</v>
       </c>
       <c r="G11">
-        <v>-0.02061239406295943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03544603287674822</v>
+      </c>
+      <c r="H11">
+        <v>0.03043000154233867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0426935009758233</v>
+        <v>-0.03002309543811343</v>
       </c>
       <c r="C12">
-        <v>0.006404786661464795</v>
+        <v>0.006694460498104361</v>
       </c>
       <c r="D12">
-        <v>-0.009741834184349943</v>
+        <v>0.03815133181424051</v>
       </c>
       <c r="E12">
-        <v>-0.04293806412768152</v>
+        <v>-0.006104794285557921</v>
       </c>
       <c r="F12">
-        <v>0.02022983133566361</v>
+        <v>0.01815797379958859</v>
       </c>
       <c r="G12">
-        <v>-0.01470585851451006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01522289542954812</v>
+      </c>
+      <c r="H12">
+        <v>0.01501854143331208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02168719104966354</v>
+        <v>-0.02779610360895004</v>
       </c>
       <c r="C13">
-        <v>0.03528955505863159</v>
+        <v>-0.0130777725548774</v>
       </c>
       <c r="D13">
-        <v>-0.003354860691966467</v>
+        <v>0.003859725575744958</v>
       </c>
       <c r="E13">
-        <v>-0.01140591351123689</v>
+        <v>0.01833343902036629</v>
       </c>
       <c r="F13">
-        <v>0.09300313093408648</v>
+        <v>0.01055397275686894</v>
       </c>
       <c r="G13">
-        <v>-0.0410250568322412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.07143081490310615</v>
+      </c>
+      <c r="H13">
+        <v>0.03013823844759386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01332797453079346</v>
+        <v>-0.01712767888701378</v>
       </c>
       <c r="C14">
-        <v>0.006044538151763937</v>
+        <v>-0.0004118042668262849</v>
       </c>
       <c r="D14">
-        <v>-0.007585684751819773</v>
+        <v>0.004883157194762882</v>
       </c>
       <c r="E14">
-        <v>-0.03192607567361526</v>
+        <v>-0.007814097576154021</v>
       </c>
       <c r="F14">
-        <v>0.05998653143230722</v>
+        <v>0.0162035618677058</v>
       </c>
       <c r="G14">
-        <v>-0.06760570023447207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04674099952485493</v>
+      </c>
+      <c r="H14">
+        <v>-0.01502447224680845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02582349777238388</v>
+        <v>-0.02289378822479616</v>
       </c>
       <c r="C16">
-        <v>0.01660042201075253</v>
+        <v>0.008805314737404757</v>
       </c>
       <c r="D16">
-        <v>-0.003880430943215944</v>
+        <v>0.03319891387493096</v>
       </c>
       <c r="E16">
-        <v>-0.03174261376146882</v>
+        <v>0.0001299652275864449</v>
       </c>
       <c r="F16">
-        <v>0.04218545495978644</v>
+        <v>0.01592832213944522</v>
       </c>
       <c r="G16">
-        <v>-0.02501950850922793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03254261689203779</v>
+      </c>
+      <c r="H16">
+        <v>0.02396364449002484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04297107785687299</v>
+        <v>-0.03487224349574217</v>
       </c>
       <c r="C19">
-        <v>0.01897878544185531</v>
+        <v>0.0005957831725505754</v>
       </c>
       <c r="D19">
-        <v>-0.00089343638490045</v>
+        <v>0.01579814337195569</v>
       </c>
       <c r="E19">
-        <v>-0.04476727014064025</v>
+        <v>0.001294984282807355</v>
       </c>
       <c r="F19">
-        <v>0.10690136617739</v>
+        <v>0.02312578232928593</v>
       </c>
       <c r="G19">
-        <v>-0.05042052271074107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07679484430378229</v>
+      </c>
+      <c r="H19">
+        <v>0.04136971787962151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001212179464468362</v>
+        <v>-0.01034238649829805</v>
       </c>
       <c r="C20">
-        <v>0.01111792956430329</v>
+        <v>-0.006567728446132777</v>
       </c>
       <c r="D20">
-        <v>-0.01183923336760771</v>
+        <v>0.004685141558246475</v>
       </c>
       <c r="E20">
-        <v>-0.03511051946730539</v>
+        <v>3.615821262782532e-05</v>
       </c>
       <c r="F20">
-        <v>0.0626913610680498</v>
+        <v>0.01000861329526829</v>
       </c>
       <c r="G20">
-        <v>-0.07432429279633795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05372379139317098</v>
+      </c>
+      <c r="H20">
+        <v>-0.007557040842754495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0006747850077981121</v>
+        <v>-0.01962562976991077</v>
       </c>
       <c r="C21">
-        <v>0.0007040894688721776</v>
+        <v>-0.006586603104586778</v>
       </c>
       <c r="D21">
-        <v>0.01215025790394942</v>
+        <v>0.008859512235322622</v>
       </c>
       <c r="E21">
-        <v>-0.03581654032301861</v>
+        <v>-0.01193991159341999</v>
       </c>
       <c r="F21">
-        <v>0.06311743188079949</v>
+        <v>0.006273567810059812</v>
       </c>
       <c r="G21">
-        <v>-0.0269165371549661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.06590583160470385</v>
+      </c>
+      <c r="H21">
+        <v>0.00820756222211306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03272322340831712</v>
+        <v>-0.02093077123278736</v>
       </c>
       <c r="C24">
-        <v>0.01635671511620211</v>
+        <v>0.003277272891182796</v>
       </c>
       <c r="D24">
-        <v>-0.009730174014552334</v>
+        <v>0.033729429713992</v>
       </c>
       <c r="E24">
-        <v>-0.01816289401394459</v>
+        <v>0.00027740077640026</v>
       </c>
       <c r="F24">
-        <v>0.03643999559301823</v>
+        <v>0.01022657428956153</v>
       </c>
       <c r="G24">
-        <v>-0.01903872353729569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02929642828575913</v>
+      </c>
+      <c r="H24">
+        <v>0.02800132964870881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03149154660846486</v>
+        <v>-0.02998980583129395</v>
       </c>
       <c r="C25">
-        <v>0.008800637429709891</v>
+        <v>0.0011624076030182</v>
       </c>
       <c r="D25">
-        <v>-0.002597671930519247</v>
+        <v>0.03328910493357583</v>
       </c>
       <c r="E25">
-        <v>-0.03780599105821159</v>
+        <v>-0.00132706265493538</v>
       </c>
       <c r="F25">
-        <v>0.03582587550143287</v>
+        <v>0.01717015565395861</v>
       </c>
       <c r="G25">
-        <v>-0.004147480566129905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0339404944822837</v>
+      </c>
+      <c r="H25">
+        <v>0.03004452580076396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02263463146111483</v>
+        <v>-0.02101424510560218</v>
       </c>
       <c r="C26">
-        <v>0.02936784190254101</v>
+        <v>-0.01667254018339319</v>
       </c>
       <c r="D26">
-        <v>0.01864026572615395</v>
+        <v>0.003092938763238866</v>
       </c>
       <c r="E26">
-        <v>-0.03277739001914769</v>
+        <v>0.007422489534527125</v>
       </c>
       <c r="F26">
-        <v>0.06131432343569409</v>
+        <v>0.0009716543549956919</v>
       </c>
       <c r="G26">
-        <v>-0.03114575853271005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03892454592455043</v>
+      </c>
+      <c r="H26">
+        <v>-0.0009392186691629906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07221542534766778</v>
+        <v>-0.02794383387161105</v>
       </c>
       <c r="C27">
-        <v>0.01438911769513313</v>
+        <v>0.01077648465931315</v>
       </c>
       <c r="D27">
-        <v>-0.04852932815406535</v>
+        <v>0.01814489933459658</v>
       </c>
       <c r="E27">
-        <v>-0.05006787181687603</v>
+        <v>-0.005618536809362896</v>
       </c>
       <c r="F27">
-        <v>0.06091425609682977</v>
+        <v>0.02111784777688356</v>
       </c>
       <c r="G27">
-        <v>-0.04849485562883638</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.027391494272441</v>
+      </c>
+      <c r="H27">
+        <v>-0.0008976100653466455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05818568400583893</v>
+        <v>-0.1506564050721154</v>
       </c>
       <c r="C28">
-        <v>-0.02301953482239259</v>
+        <v>0.03419139102347964</v>
       </c>
       <c r="D28">
-        <v>-0.05001027422569684</v>
+        <v>-0.2231887463594018</v>
       </c>
       <c r="E28">
-        <v>0.1703759544324322</v>
+        <v>0.004820058522290707</v>
       </c>
       <c r="F28">
-        <v>0.07655019573551765</v>
+        <v>-0.054580109112813</v>
       </c>
       <c r="G28">
-        <v>-0.01466157630624069</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.007686434656037404</v>
+      </c>
+      <c r="H28">
+        <v>-0.01629448244540033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02208586554228152</v>
+        <v>-0.02179298509006337</v>
       </c>
       <c r="C29">
-        <v>0.0001698837583876511</v>
+        <v>0.001705607027575981</v>
       </c>
       <c r="D29">
-        <v>-0.012874016451743</v>
+        <v>0.008440596688171362</v>
       </c>
       <c r="E29">
-        <v>-0.0479760317049189</v>
+        <v>-0.009489919884002421</v>
       </c>
       <c r="F29">
-        <v>0.04855934233962218</v>
+        <v>0.01929505169683992</v>
       </c>
       <c r="G29">
-        <v>-0.06016458605664771</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.04035500905328131</v>
+      </c>
+      <c r="H29">
+        <v>-0.01569943196930922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09172866938214347</v>
+        <v>-0.0537670676518982</v>
       </c>
       <c r="C30">
-        <v>0.05338432588540161</v>
+        <v>-0.003380530693340422</v>
       </c>
       <c r="D30">
-        <v>-0.04298839142233481</v>
+        <v>0.06677853842870035</v>
       </c>
       <c r="E30">
-        <v>-0.07956302061117262</v>
+        <v>0.03720943871953722</v>
       </c>
       <c r="F30">
-        <v>0.06907435302351142</v>
+        <v>0.05465955836372566</v>
       </c>
       <c r="G30">
-        <v>-0.03555474201351375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06918864755353406</v>
+      </c>
+      <c r="H30">
+        <v>0.0403628721662401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06457699607034342</v>
+        <v>-0.05534395725698573</v>
       </c>
       <c r="C31">
-        <v>0.04804648289406979</v>
+        <v>0.01542904541479135</v>
       </c>
       <c r="D31">
-        <v>0.0009297215205635128</v>
+        <v>0.0288375603705214</v>
       </c>
       <c r="E31">
-        <v>-0.03518793610171397</v>
+        <v>0.009852582112227093</v>
       </c>
       <c r="F31">
-        <v>0.03583952451226909</v>
+        <v>0.01541072456631841</v>
       </c>
       <c r="G31">
-        <v>-0.07866288374617142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02721763887773465</v>
+      </c>
+      <c r="H31">
+        <v>-0.01328338042511727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01969879393784424</v>
+        <v>-0.01172471999509675</v>
       </c>
       <c r="C32">
-        <v>0.006427897796058542</v>
+        <v>0.01403705550839997</v>
       </c>
       <c r="D32">
-        <v>-0.01474331677714928</v>
+        <v>0.003501450311249276</v>
       </c>
       <c r="E32">
-        <v>-0.06998023085979521</v>
+        <v>-0.01860327518040058</v>
       </c>
       <c r="F32">
-        <v>0.06073758981307709</v>
+        <v>0.04260500752575358</v>
       </c>
       <c r="G32">
-        <v>-0.04422123159375919</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05601694679358417</v>
+      </c>
+      <c r="H32">
+        <v>0.04537048239135662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05564704141395944</v>
+        <v>-0.04031409676054083</v>
       </c>
       <c r="C33">
-        <v>0.03631949965263103</v>
+        <v>0.001593624125241928</v>
       </c>
       <c r="D33">
-        <v>0.02296091130025206</v>
+        <v>0.03131536680388461</v>
       </c>
       <c r="E33">
-        <v>-0.06409040927558847</v>
+        <v>0.02436266194952751</v>
       </c>
       <c r="F33">
-        <v>0.09112242312596833</v>
+        <v>0.001146481193813195</v>
       </c>
       <c r="G33">
-        <v>-0.04801182362453332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0647387551843194</v>
+      </c>
+      <c r="H33">
+        <v>0.01922284050326709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0344359342800382</v>
+        <v>-0.02731115998142776</v>
       </c>
       <c r="C34">
-        <v>0.01561053390874115</v>
+        <v>0.01735052582525816</v>
       </c>
       <c r="D34">
-        <v>-0.01170022091818534</v>
+        <v>0.03471024691520969</v>
       </c>
       <c r="E34">
-        <v>-0.04181573988588463</v>
+        <v>-0.005147814084754171</v>
       </c>
       <c r="F34">
-        <v>0.04959763776166509</v>
+        <v>0.01754307849336968</v>
       </c>
       <c r="G34">
-        <v>-0.01516334140456916</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02911654938752428</v>
+      </c>
+      <c r="H34">
+        <v>0.02538748114210551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01461953666280229</v>
+        <v>-0.02223302152028504</v>
       </c>
       <c r="C36">
-        <v>0.003218733061475685</v>
+        <v>-0.003079137392873594</v>
       </c>
       <c r="D36">
-        <v>-0.007370282610063445</v>
+        <v>-0.0008698372869502913</v>
       </c>
       <c r="E36">
-        <v>-0.02448114817373133</v>
+        <v>-0.002194212512641883</v>
       </c>
       <c r="F36">
-        <v>0.02665635943346772</v>
+        <v>0.007075739476639407</v>
       </c>
       <c r="G36">
-        <v>-0.03202211535727887</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02188424807838586</v>
+      </c>
+      <c r="H36">
+        <v>-0.002895082244202026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001704028243961506</v>
+        <v>-0.02150251308123201</v>
       </c>
       <c r="C38">
-        <v>-0.01644736997507261</v>
+        <v>0.01641275985872474</v>
       </c>
       <c r="D38">
-        <v>0.007307838291530244</v>
+        <v>0.001919694062261426</v>
       </c>
       <c r="E38">
-        <v>0.005951230565833389</v>
+        <v>-0.005189682132925506</v>
       </c>
       <c r="F38">
-        <v>0.0181799073686043</v>
+        <v>0.009322137880655204</v>
       </c>
       <c r="G38">
-        <v>0.01105421976747281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02980829593261942</v>
+      </c>
+      <c r="H38">
+        <v>0.02310842883538933</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04039741961456308</v>
+        <v>-0.02044633882743442</v>
       </c>
       <c r="C39">
-        <v>0.03601450257964867</v>
+        <v>0.001118887885867909</v>
       </c>
       <c r="D39">
-        <v>-0.01120405364333358</v>
+        <v>0.07436160006353434</v>
       </c>
       <c r="E39">
-        <v>-0.04311839029692609</v>
+        <v>0.006427511034575937</v>
       </c>
       <c r="F39">
-        <v>0.05266670714483415</v>
+        <v>0.02328072299918412</v>
       </c>
       <c r="G39">
-        <v>-0.01270790739909912</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05532919436687242</v>
+      </c>
+      <c r="H39">
+        <v>0.05391725543390462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03202318582107019</v>
+        <v>-0.03465981239869646</v>
       </c>
       <c r="C40">
-        <v>0.06393697966080854</v>
+        <v>0.00208382088130145</v>
       </c>
       <c r="D40">
-        <v>-0.01533566059560239</v>
+        <v>0.01847542771240825</v>
       </c>
       <c r="E40">
-        <v>-0.03023352669702974</v>
+        <v>0.02284768524470794</v>
       </c>
       <c r="F40">
-        <v>0.09576493570850343</v>
+        <v>0.02504987307162092</v>
       </c>
       <c r="G40">
-        <v>-0.05116978967900872</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.05177310373182115</v>
+      </c>
+      <c r="H40">
+        <v>0.04955920374442189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001097031496430263</v>
+        <v>-0.01239915537579501</v>
       </c>
       <c r="C41">
-        <v>0.001612775418988692</v>
+        <v>0.0005202558839923401</v>
       </c>
       <c r="D41">
-        <v>0.002089426866300295</v>
+        <v>-0.01282572610827965</v>
       </c>
       <c r="E41">
-        <v>-0.01198645719032309</v>
+        <v>0.0008411280711422445</v>
       </c>
       <c r="F41">
-        <v>0.005410854715839517</v>
+        <v>0.001742741705899313</v>
       </c>
       <c r="G41">
-        <v>-0.05387578702247794</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.008015410057921534</v>
+      </c>
+      <c r="H41">
+        <v>-0.01630165288019664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3863537216583949</v>
+        <v>-0.1959814919258834</v>
       </c>
       <c r="C42">
-        <v>-0.1223289973949676</v>
+        <v>-0.07493291549761967</v>
       </c>
       <c r="D42">
-        <v>0.8629178368132869</v>
+        <v>0.3873248979759134</v>
       </c>
       <c r="E42">
-        <v>0.1378554531042394</v>
+        <v>0.1504589573005456</v>
       </c>
       <c r="F42">
-        <v>-0.1839931305013887</v>
+        <v>-0.8558180192399919</v>
       </c>
       <c r="G42">
-        <v>-0.04822300278044097</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1763392545521409</v>
+      </c>
+      <c r="H42">
+        <v>-0.01785837676352951</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005785521889649502</v>
+        <v>-0.01170259149319504</v>
       </c>
       <c r="C43">
-        <v>0.004853188995791196</v>
+        <v>-0.001526419076316515</v>
       </c>
       <c r="D43">
-        <v>0.01463087791741774</v>
+        <v>-0.0153369619717251</v>
       </c>
       <c r="E43">
-        <v>-0.01745314455437137</v>
+        <v>0.007158632875539649</v>
       </c>
       <c r="F43">
-        <v>0.02350015813498395</v>
+        <v>-0.009842924084236671</v>
       </c>
       <c r="G43">
-        <v>-0.05162957340387951</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01633480012886529</v>
+      </c>
+      <c r="H43">
+        <v>-0.01006803863886355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02015421583301536</v>
+        <v>-0.01498090996203194</v>
       </c>
       <c r="C44">
-        <v>0.01798743996947077</v>
+        <v>0.000657357132375348</v>
       </c>
       <c r="D44">
-        <v>0.0231519327525002</v>
+        <v>0.02426377212531985</v>
       </c>
       <c r="E44">
-        <v>-0.06926715413570708</v>
+        <v>0.001555842970996362</v>
       </c>
       <c r="F44">
-        <v>0.1633071274724046</v>
+        <v>-0.008398986569489311</v>
       </c>
       <c r="G44">
-        <v>-0.1715824614514762</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08652239131165383</v>
+      </c>
+      <c r="H44">
+        <v>0.01810418926614621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0206786738148694</v>
+        <v>-0.0199065593450454</v>
       </c>
       <c r="C46">
-        <v>0.0156258751876091</v>
+        <v>-0.003068920893096536</v>
       </c>
       <c r="D46">
-        <v>0.008999450782556812</v>
+        <v>0.01493211297888709</v>
       </c>
       <c r="E46">
-        <v>-0.05886201504624098</v>
+        <v>0.001790369617898401</v>
       </c>
       <c r="F46">
-        <v>0.06200948080906304</v>
+        <v>0.01807744570560149</v>
       </c>
       <c r="G46">
-        <v>-0.06169148695036458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05641200105019142</v>
+      </c>
+      <c r="H46">
+        <v>-0.01305603261913976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0999460556713582</v>
+        <v>-0.07577089968632615</v>
       </c>
       <c r="C47">
-        <v>0.03266186042662533</v>
+        <v>0.03088682204746583</v>
       </c>
       <c r="D47">
-        <v>-0.02139395950247249</v>
+        <v>0.04167305510041729</v>
       </c>
       <c r="E47">
-        <v>-0.0366617219562972</v>
+        <v>0.005191726844250243</v>
       </c>
       <c r="F47">
-        <v>0.001612506089456985</v>
+        <v>0.02578376330828458</v>
       </c>
       <c r="G47">
-        <v>-0.08370398616902319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.006568660742704995</v>
+      </c>
+      <c r="H47">
+        <v>-0.03093235480956139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01654250600499705</v>
+        <v>-0.02271346968163706</v>
       </c>
       <c r="C48">
-        <v>0.01307918152335402</v>
+        <v>0.007057687733781268</v>
       </c>
       <c r="D48">
-        <v>0.002806122618307489</v>
+        <v>0.004826958133205872</v>
       </c>
       <c r="E48">
-        <v>-0.0325096189288938</v>
+        <v>0.002701513788743312</v>
       </c>
       <c r="F48">
-        <v>0.04251727907851029</v>
+        <v>0.009314001079865427</v>
       </c>
       <c r="G48">
-        <v>-0.01828352378147957</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.03020636870318965</v>
+      </c>
+      <c r="H48">
+        <v>0.002083456960122835</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09222573926434301</v>
+        <v>-0.0723320144082723</v>
       </c>
       <c r="C50">
-        <v>0.04077229597115636</v>
+        <v>0.02733672256624126</v>
       </c>
       <c r="D50">
-        <v>-0.006813007835005821</v>
+        <v>0.04706709343700741</v>
       </c>
       <c r="E50">
-        <v>-0.05794282023106612</v>
+        <v>-0.009247638369977237</v>
       </c>
       <c r="F50">
-        <v>0.03185990957912022</v>
+        <v>0.02208842663874241</v>
       </c>
       <c r="G50">
-        <v>-0.0392277341345263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02585909223235648</v>
+      </c>
+      <c r="H50">
+        <v>-0.02378187290271444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02174430196320232</v>
+        <v>-0.02097247111625085</v>
       </c>
       <c r="C51">
-        <v>0.02040022770049131</v>
+        <v>-0.0004275859027285572</v>
       </c>
       <c r="D51">
-        <v>0.01342267199566785</v>
+        <v>-0.007271337479352357</v>
       </c>
       <c r="E51">
-        <v>-0.01040760446813909</v>
+        <v>0.006591697039195693</v>
       </c>
       <c r="F51">
-        <v>0.1388053818869505</v>
+        <v>-0.01214839632230325</v>
       </c>
       <c r="G51">
-        <v>-0.0610029691610643</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.07206580504468243</v>
+      </c>
+      <c r="H51">
+        <v>0.02756061506393866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1028878851777696</v>
+        <v>-0.0904834342517452</v>
       </c>
       <c r="C53">
-        <v>0.04564705985129048</v>
+        <v>0.03660766913224599</v>
       </c>
       <c r="D53">
-        <v>-0.02335263198771471</v>
+        <v>0.07865407647008771</v>
       </c>
       <c r="E53">
-        <v>-0.05466734553437938</v>
+        <v>0.003689709731987058</v>
       </c>
       <c r="F53">
-        <v>-0.05934382300022678</v>
+        <v>0.05304001679208876</v>
       </c>
       <c r="G53">
-        <v>-0.0286501160686761</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05176600814807552</v>
+      </c>
+      <c r="H53">
+        <v>-0.03979423695713906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0168310993212638</v>
+        <v>-0.02509712298390728</v>
       </c>
       <c r="C54">
-        <v>0.003976018111985729</v>
+        <v>0.01193524284867946</v>
       </c>
       <c r="D54">
-        <v>-0.01820937297277574</v>
+        <v>-0.01654318111426418</v>
       </c>
       <c r="E54">
-        <v>-0.03218498554084347</v>
+        <v>-0.006244100312479986</v>
       </c>
       <c r="F54">
-        <v>0.05905318636635144</v>
+        <v>0.009903745631602715</v>
       </c>
       <c r="G54">
-        <v>-0.08334626653561596</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03734801224607665</v>
+      </c>
+      <c r="H54">
+        <v>-0.01375597153124665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1006435595197839</v>
+        <v>-0.0763915186224219</v>
       </c>
       <c r="C55">
-        <v>0.009790977880115998</v>
+        <v>0.03198134000078029</v>
       </c>
       <c r="D55">
-        <v>-0.02593790827578865</v>
+        <v>0.07632344053030371</v>
       </c>
       <c r="E55">
-        <v>-0.05775929768644708</v>
+        <v>-0.007443946821264692</v>
       </c>
       <c r="F55">
-        <v>-0.04749958495807602</v>
+        <v>0.04327891952252384</v>
       </c>
       <c r="G55">
-        <v>-0.05492633599013189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02968934718514339</v>
+      </c>
+      <c r="H55">
+        <v>-0.04767732678818457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1464850068974837</v>
+        <v>-0.1264020261766442</v>
       </c>
       <c r="C56">
-        <v>0.05262905529699183</v>
+        <v>0.0573314668216189</v>
       </c>
       <c r="D56">
-        <v>-0.08450502151044308</v>
+        <v>0.0996364220513774</v>
       </c>
       <c r="E56">
-        <v>-0.0614546063025737</v>
+        <v>0.001057740712796145</v>
       </c>
       <c r="F56">
-        <v>-0.1383098732192689</v>
+        <v>0.08553938783943668</v>
       </c>
       <c r="G56">
-        <v>0.02501199248575264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09023289758057454</v>
+      </c>
+      <c r="H56">
+        <v>-0.03185591243804489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04301563407112226</v>
+        <v>-0.04001239342859543</v>
       </c>
       <c r="C57">
-        <v>0.02977197286285712</v>
+        <v>-0.009691857221391726</v>
       </c>
       <c r="D57">
-        <v>0.009864888369021841</v>
+        <v>0.02676700175244616</v>
       </c>
       <c r="E57">
-        <v>-0.003364696984361448</v>
+        <v>0.01179871221182755</v>
       </c>
       <c r="F57">
-        <v>0.07096522235769066</v>
+        <v>0.01408246258076029</v>
       </c>
       <c r="G57">
-        <v>-0.04698650690474388</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06243094544466522</v>
+      </c>
+      <c r="H57">
+        <v>0.0140009067948634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1959946096716981</v>
+        <v>-0.1423978029960213</v>
       </c>
       <c r="C58">
-        <v>0.1067364173959131</v>
+        <v>0.04251193051811723</v>
       </c>
       <c r="D58">
-        <v>0.03504260510879716</v>
+        <v>0.1323561598680688</v>
       </c>
       <c r="E58">
-        <v>-0.2125453542358504</v>
+        <v>0.1185692752610642</v>
       </c>
       <c r="F58">
-        <v>0.25776228821907</v>
+        <v>-0.03082315111498162</v>
       </c>
       <c r="G58">
-        <v>0.004901656549158349</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.7005713102637716</v>
+      </c>
+      <c r="H58">
+        <v>-0.5199481998905067</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05513700176439978</v>
+        <v>-0.1557135111080155</v>
       </c>
       <c r="C59">
-        <v>0.0006392828495217601</v>
+        <v>0.04157451901440894</v>
       </c>
       <c r="D59">
-        <v>-0.06437265567475277</v>
+        <v>-0.2197465985908087</v>
       </c>
       <c r="E59">
-        <v>0.1372261260017304</v>
+        <v>0.02339348807200973</v>
       </c>
       <c r="F59">
-        <v>0.08649814547850296</v>
+        <v>-0.03789702866643265</v>
       </c>
       <c r="G59">
-        <v>0.01847180507153231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01516115861762588</v>
+      </c>
+      <c r="H59">
+        <v>0.01848840291172017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1635973402244729</v>
+        <v>-0.1717768360290747</v>
       </c>
       <c r="C60">
-        <v>0.07921745786213751</v>
+        <v>0.0379575343097142</v>
       </c>
       <c r="D60">
-        <v>0.01010507193149963</v>
+        <v>0.02398990078634133</v>
       </c>
       <c r="E60">
-        <v>-0.006251704740433625</v>
+        <v>0.053828710492794</v>
       </c>
       <c r="F60">
-        <v>0.1682877708650025</v>
+        <v>0.03139010659373645</v>
       </c>
       <c r="G60">
-        <v>0.3330474259072395</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1244196507442568</v>
+      </c>
+      <c r="H60">
+        <v>0.3853655842101458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02214549348204501</v>
+        <v>-0.0217247965376618</v>
       </c>
       <c r="C61">
-        <v>0.008058253489078038</v>
+        <v>0.006347695812607648</v>
       </c>
       <c r="D61">
-        <v>-0.00102960493602768</v>
+        <v>0.04267205371080722</v>
       </c>
       <c r="E61">
-        <v>-0.02117097415650412</v>
+        <v>-0.000761329726932697</v>
       </c>
       <c r="F61">
-        <v>0.02711174448468995</v>
+        <v>0.01834128472701382</v>
       </c>
       <c r="G61">
-        <v>-0.008811376301055631</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03342876327485923</v>
+      </c>
+      <c r="H61">
+        <v>0.03848568495600821</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01636422451547116</v>
+        <v>-0.01320766559678146</v>
       </c>
       <c r="C63">
-        <v>0.01128876591462692</v>
+        <v>-0.002022498817483429</v>
       </c>
       <c r="D63">
-        <v>-0.000160497582068537</v>
+        <v>0.01212717182397099</v>
       </c>
       <c r="E63">
-        <v>-0.04272746591244479</v>
+        <v>-0.001798045510023649</v>
       </c>
       <c r="F63">
-        <v>0.007914329769251448</v>
+        <v>0.0152504036760923</v>
       </c>
       <c r="G63">
-        <v>-0.04152271984722235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01638597024387867</v>
+      </c>
+      <c r="H63">
+        <v>-0.01240492613679762</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03869473262372976</v>
+        <v>-0.04240744895071127</v>
       </c>
       <c r="C64">
-        <v>-0.01381174332197926</v>
+        <v>0.01098352253693765</v>
       </c>
       <c r="D64">
-        <v>-0.01871893598958622</v>
+        <v>0.0390820533751034</v>
       </c>
       <c r="E64">
-        <v>-0.03856292042116229</v>
+        <v>-0.007651298838239096</v>
       </c>
       <c r="F64">
-        <v>0.02250559316983373</v>
+        <v>0.01074904219681427</v>
       </c>
       <c r="G64">
-        <v>-0.06273036049372059</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01951362328295938</v>
+      </c>
+      <c r="H64">
+        <v>0.02648533744121656</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01448340314707141</v>
+        <v>-0.02836827400525277</v>
       </c>
       <c r="C65">
-        <v>0.009767302500576848</v>
+        <v>-0.00491856066824922</v>
       </c>
       <c r="D65">
-        <v>0.009287928535792047</v>
+        <v>0.06028977898760938</v>
       </c>
       <c r="E65">
-        <v>-0.01901003307822679</v>
+        <v>-0.005183593671752254</v>
       </c>
       <c r="F65">
-        <v>0.01234855949096311</v>
+        <v>0.03454021491580883</v>
       </c>
       <c r="G65">
-        <v>0.009057992436102318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.008124252577381553</v>
+      </c>
+      <c r="H65">
+        <v>0.05835003193403438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04194174199899933</v>
+        <v>-0.02680531865052581</v>
       </c>
       <c r="C66">
-        <v>0.0281746044617795</v>
+        <v>0.005551180682886698</v>
       </c>
       <c r="D66">
-        <v>-0.007986077313216874</v>
+        <v>0.0874533588472525</v>
       </c>
       <c r="E66">
-        <v>-0.03953289676309572</v>
+        <v>0.01162938297567302</v>
       </c>
       <c r="F66">
-        <v>0.05215209726247795</v>
+        <v>0.03787363336977992</v>
       </c>
       <c r="G66">
-        <v>0.002223111520610223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04733423916690815</v>
+      </c>
+      <c r="H66">
+        <v>0.06123926263627946</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01663162590584769</v>
+        <v>-0.04300114724970189</v>
       </c>
       <c r="C67">
-        <v>-0.0128732590745494</v>
+        <v>0.02027438761478561</v>
       </c>
       <c r="D67">
-        <v>0.002374019597591087</v>
+        <v>-0.002449550675296864</v>
       </c>
       <c r="E67">
-        <v>0.02872136455398931</v>
+        <v>-0.002777777506692903</v>
       </c>
       <c r="F67">
-        <v>0.02063662802164462</v>
+        <v>0.013385585799259</v>
       </c>
       <c r="G67">
-        <v>0.01833724818223999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01723863689294718</v>
+      </c>
+      <c r="H67">
+        <v>0.03393854354468252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07182218175844819</v>
+        <v>-0.1605344550009362</v>
       </c>
       <c r="C68">
-        <v>-0.01699408362427845</v>
+        <v>0.02273402842347015</v>
       </c>
       <c r="D68">
-        <v>-0.07256071022210381</v>
+        <v>-0.2166988515914374</v>
       </c>
       <c r="E68">
-        <v>0.1822196475907083</v>
+        <v>0.0194062766981153</v>
       </c>
       <c r="F68">
-        <v>0.07214421743316896</v>
+        <v>-0.05817781732665644</v>
       </c>
       <c r="G68">
-        <v>0.04285897986923746</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01380118301303707</v>
+      </c>
+      <c r="H68">
+        <v>-0.04053853292452432</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0730574298684198</v>
+        <v>-0.0583305259036208</v>
       </c>
       <c r="C69">
-        <v>0.03212044472594942</v>
+        <v>0.02860267519673538</v>
       </c>
       <c r="D69">
-        <v>-0.02239578841134544</v>
+        <v>0.03979322226443404</v>
       </c>
       <c r="E69">
-        <v>-0.01661900837639653</v>
+        <v>0.005088401443571892</v>
       </c>
       <c r="F69">
-        <v>0.003334104122645717</v>
+        <v>0.02772733523791646</v>
       </c>
       <c r="G69">
-        <v>-0.07647333287550359</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.002071257505237871</v>
+      </c>
+      <c r="H69">
+        <v>-0.009577073158832178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08583319237792526</v>
+        <v>-0.1513307629604707</v>
       </c>
       <c r="C71">
-        <v>0.001660562268250538</v>
+        <v>0.03006901969618694</v>
       </c>
       <c r="D71">
-        <v>-0.06273201294013736</v>
+        <v>-0.1996705631076511</v>
       </c>
       <c r="E71">
-        <v>0.2124251195192789</v>
+        <v>0.01986220661597864</v>
       </c>
       <c r="F71">
-        <v>0.07635665617541489</v>
+        <v>-0.06669325345246063</v>
       </c>
       <c r="G71">
-        <v>0.005598188190931811</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.008223730503763767</v>
+      </c>
+      <c r="H71">
+        <v>-0.02447482781448686</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1063700618955514</v>
+        <v>-0.08401626568927596</v>
       </c>
       <c r="C72">
-        <v>0.04669604007521353</v>
+        <v>0.04077324748195685</v>
       </c>
       <c r="D72">
-        <v>-0.07498898469012516</v>
+        <v>0.08501680589298395</v>
       </c>
       <c r="E72">
-        <v>-0.06027572429049029</v>
+        <v>0.01007160834182684</v>
       </c>
       <c r="F72">
-        <v>0.1130978322759561</v>
+        <v>0.08291644944497834</v>
       </c>
       <c r="G72">
-        <v>0.1124198357782488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.09963018478908782</v>
+      </c>
+      <c r="H72">
+        <v>0.1588614950419588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.243783876505521</v>
+        <v>-0.2412322097032378</v>
       </c>
       <c r="C73">
-        <v>0.08309198556493028</v>
+        <v>0.0509836340322272</v>
       </c>
       <c r="D73">
-        <v>-0.005884159443339838</v>
+        <v>0.06942838449472899</v>
       </c>
       <c r="E73">
-        <v>0.08144059685116302</v>
+        <v>0.08071786889385672</v>
       </c>
       <c r="F73">
-        <v>0.2808780666896881</v>
+        <v>0.02705789125816285</v>
       </c>
       <c r="G73">
-        <v>0.4843154152550969</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1622397880767568</v>
+      </c>
+      <c r="H73">
+        <v>0.5142359783781209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1320338634229672</v>
+        <v>-0.11590884173831</v>
       </c>
       <c r="C74">
-        <v>0.04042879241128932</v>
+        <v>0.05242247562521719</v>
       </c>
       <c r="D74">
-        <v>-0.03629302564922444</v>
+        <v>0.09955511704075486</v>
       </c>
       <c r="E74">
-        <v>-0.02318449993894508</v>
+        <v>0.00682028593683662</v>
       </c>
       <c r="F74">
-        <v>-0.0901841325505963</v>
+        <v>0.06712882712448491</v>
       </c>
       <c r="G74">
-        <v>0.03095023652032132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06761228068743377</v>
+      </c>
+      <c r="H74">
+        <v>-0.01470835299027099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2184726480932384</v>
+        <v>-0.2235512911190174</v>
       </c>
       <c r="C75">
-        <v>0.1118437710067864</v>
+        <v>0.1029780902137505</v>
       </c>
       <c r="D75">
-        <v>-0.1156616847183688</v>
+        <v>0.1576926982854966</v>
       </c>
       <c r="E75">
-        <v>-0.09161439440772116</v>
+        <v>0.02705169457794342</v>
       </c>
       <c r="F75">
-        <v>-0.1439536791492502</v>
+        <v>0.151291118070743</v>
       </c>
       <c r="G75">
-        <v>-0.02527217491767252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1403710897773058</v>
+      </c>
+      <c r="H75">
+        <v>-0.09184270305410645</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2693594131594299</v>
+        <v>-0.1981390539043885</v>
       </c>
       <c r="C76">
-        <v>0.05659253663484888</v>
+        <v>0.09619368792875856</v>
       </c>
       <c r="D76">
-        <v>-0.1560877317734483</v>
+        <v>0.1543414471112521</v>
       </c>
       <c r="E76">
-        <v>-0.06925607066741618</v>
+        <v>-0.01716165435405275</v>
       </c>
       <c r="F76">
-        <v>-0.177437145707617</v>
+        <v>0.1532826176899037</v>
       </c>
       <c r="G76">
-        <v>-0.04768352984033748</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1523380580823123</v>
+      </c>
+      <c r="H76">
+        <v>-0.1014937575966222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1454921623866695</v>
+        <v>-0.07211722960573765</v>
       </c>
       <c r="C77">
-        <v>0.03779524211888884</v>
+        <v>0.009947764146150858</v>
       </c>
       <c r="D77">
-        <v>0.07218910506868753</v>
+        <v>0.07635799321192331</v>
       </c>
       <c r="E77">
-        <v>-0.1002410690051267</v>
+        <v>0.01549534055665401</v>
       </c>
       <c r="F77">
-        <v>0.2064561196393073</v>
+        <v>-0.03069258479775455</v>
       </c>
       <c r="G77">
-        <v>-0.1779267024410904</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1275732179814619</v>
+      </c>
+      <c r="H77">
+        <v>-0.06727575083105829</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05762874174631488</v>
+        <v>-0.03671891466553895</v>
       </c>
       <c r="C78">
-        <v>0.03153423695927431</v>
+        <v>0.01051201696793428</v>
       </c>
       <c r="D78">
-        <v>0.000928164693886179</v>
+        <v>0.06380634120782534</v>
       </c>
       <c r="E78">
-        <v>-0.09836062912964316</v>
+        <v>0.001138561832632794</v>
       </c>
       <c r="F78">
-        <v>0.05060758894107183</v>
+        <v>0.031979749888808</v>
       </c>
       <c r="G78">
-        <v>-0.04845157778867479</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05873739491803929</v>
+      </c>
+      <c r="H78">
+        <v>0.03204245836149148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2192358985271407</v>
+        <v>-0.1548416411678675</v>
       </c>
       <c r="C80">
-        <v>-0.926216016657976</v>
+        <v>0.04731565732634627</v>
       </c>
       <c r="D80">
-        <v>-0.175136193248719</v>
+        <v>0.05253332711010678</v>
       </c>
       <c r="E80">
-        <v>-0.1993291760353438</v>
+        <v>-0.9630358549121131</v>
       </c>
       <c r="F80">
-        <v>0.04938771422757093</v>
+        <v>-0.1383378181279603</v>
       </c>
       <c r="G80">
-        <v>0.04747858893664212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.08457223074956485</v>
+      </c>
+      <c r="H80">
+        <v>0.008973405682838297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1585959625191396</v>
+        <v>-0.1469905669418341</v>
       </c>
       <c r="C81">
-        <v>0.05513285117571626</v>
+        <v>0.06681718184239091</v>
       </c>
       <c r="D81">
-        <v>-0.1033531075659299</v>
+        <v>0.1001548138291102</v>
       </c>
       <c r="E81">
-        <v>-0.05094885201158712</v>
+        <v>-0.0005249769076897251</v>
       </c>
       <c r="F81">
-        <v>-0.1449735920852092</v>
+        <v>0.09719013338617938</v>
       </c>
       <c r="G81">
-        <v>0.008922090208685843</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.09344520871647619</v>
+      </c>
+      <c r="H81">
+        <v>-0.07096988568556001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05406829436859484</v>
+        <v>-0.03554214268708889</v>
       </c>
       <c r="C83">
-        <v>0.03626247214183702</v>
+        <v>0.006983642513100585</v>
       </c>
       <c r="D83">
-        <v>0.02828787517500508</v>
+        <v>0.02422627384473365</v>
       </c>
       <c r="E83">
-        <v>-0.0283954077858419</v>
+        <v>0.01402189344958605</v>
       </c>
       <c r="F83">
-        <v>0.06229792374197317</v>
+        <v>0.005886123303657708</v>
       </c>
       <c r="G83">
-        <v>-0.04793080842880541</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06048651697367663</v>
+      </c>
+      <c r="H83">
+        <v>0.01899625542763178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2381824345998597</v>
+        <v>-0.2101154195805206</v>
       </c>
       <c r="C85">
-        <v>0.08476466111737554</v>
+        <v>0.08507027196145675</v>
       </c>
       <c r="D85">
-        <v>-0.1211210003298489</v>
+        <v>0.1606548147923711</v>
       </c>
       <c r="E85">
-        <v>-0.07424577903681963</v>
+        <v>0.01902436814527433</v>
       </c>
       <c r="F85">
-        <v>-0.1715517912738164</v>
+        <v>0.1325020134840187</v>
       </c>
       <c r="G85">
-        <v>-0.06435218788630444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.152831280590143</v>
+      </c>
+      <c r="H85">
+        <v>-0.06457569291554983</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.001101484797164916</v>
+        <v>-0.0182603257620614</v>
       </c>
       <c r="C86">
-        <v>-0.007918615761902692</v>
+        <v>-0.0003718736007503379</v>
       </c>
       <c r="D86">
-        <v>0.01632992154434021</v>
+        <v>0.003912063284375827</v>
       </c>
       <c r="E86">
-        <v>-0.0444323342146847</v>
+        <v>0.01137502829629884</v>
       </c>
       <c r="F86">
-        <v>0.06743171053731462</v>
+        <v>-0.01050780797131019</v>
       </c>
       <c r="G86">
-        <v>-0.02700601519125176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08527969195169371</v>
+      </c>
+      <c r="H86">
+        <v>0.04124859063244535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03377716226444439</v>
+        <v>-0.02864208644512449</v>
       </c>
       <c r="C87">
-        <v>0.009732317783444883</v>
+        <v>0.003171274544217492</v>
       </c>
       <c r="D87">
-        <v>0.00487462337232296</v>
+        <v>0.03222185831104433</v>
       </c>
       <c r="E87">
-        <v>-0.0255488230913899</v>
+        <v>0.003534443490973146</v>
       </c>
       <c r="F87">
-        <v>0.08993546842861952</v>
+        <v>0.01067206128590219</v>
       </c>
       <c r="G87">
-        <v>-0.008451189060980049</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09367758424205451</v>
+      </c>
+      <c r="H87">
+        <v>0.03228536583586989</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01134099721241101</v>
+        <v>-0.0380443093326044</v>
       </c>
       <c r="C88">
-        <v>-0.01809988604217452</v>
+        <v>-0.01012560430715189</v>
       </c>
       <c r="D88">
-        <v>-0.02220138244310071</v>
+        <v>0.002391542305016086</v>
       </c>
       <c r="E88">
-        <v>0.002375451505265642</v>
+        <v>-0.009502452977793641</v>
       </c>
       <c r="F88">
-        <v>0.02269441397672027</v>
+        <v>0.01397948218222148</v>
       </c>
       <c r="G88">
-        <v>-0.07109182291790993</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.005244512976675338</v>
+      </c>
+      <c r="H88">
+        <v>0.01001512477068608</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0989285695097452</v>
+        <v>-0.2443452359665803</v>
       </c>
       <c r="C89">
-        <v>0.006412023386166117</v>
+        <v>0.0442038136280483</v>
       </c>
       <c r="D89">
-        <v>-0.08066007904856481</v>
+        <v>-0.3407549380450131</v>
       </c>
       <c r="E89">
-        <v>0.2824574521922315</v>
+        <v>0.05083110470547347</v>
       </c>
       <c r="F89">
-        <v>0.123712136895605</v>
+        <v>-0.07272010353026435</v>
       </c>
       <c r="G89">
-        <v>-0.04792113451222244</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.006453649317024924</v>
+      </c>
+      <c r="H89">
+        <v>-0.03821731293211964</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09851001304775038</v>
+        <v>-0.199585224235644</v>
       </c>
       <c r="C90">
-        <v>-0.04273070709759764</v>
+        <v>0.03724071522291624</v>
       </c>
       <c r="D90">
-        <v>-0.1009793425841784</v>
+        <v>-0.3020414683431747</v>
       </c>
       <c r="E90">
-        <v>0.3141881548974623</v>
+        <v>0.02816852979697793</v>
       </c>
       <c r="F90">
-        <v>0.0884377849987249</v>
+        <v>-0.08526753484679819</v>
       </c>
       <c r="G90">
-        <v>-0.02354664623936143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04888710948115913</v>
+      </c>
+      <c r="H90">
+        <v>-0.05122220278373917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2908574752052674</v>
+        <v>-0.2316567047724803</v>
       </c>
       <c r="C91">
-        <v>0.09877138612486304</v>
+        <v>0.1049277146163252</v>
       </c>
       <c r="D91">
-        <v>-0.1167648358333999</v>
+        <v>0.1541403436459064</v>
       </c>
       <c r="E91">
-        <v>-0.04252916267500441</v>
+        <v>0.01798978419833973</v>
       </c>
       <c r="F91">
-        <v>-0.2374259562174993</v>
+        <v>0.1462817340924495</v>
       </c>
       <c r="G91">
-        <v>-0.006676166564074322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1858829503200257</v>
+      </c>
+      <c r="H91">
+        <v>-0.1268980433205751</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1661255782906415</v>
+        <v>-0.2460088903401488</v>
       </c>
       <c r="C92">
-        <v>-0.04731700364782643</v>
+        <v>0.09930278516367996</v>
       </c>
       <c r="D92">
-        <v>-0.1495076850492295</v>
+        <v>-0.2383439023549405</v>
       </c>
       <c r="E92">
-        <v>0.4613112040982013</v>
+        <v>0.01186259703039195</v>
       </c>
       <c r="F92">
-        <v>0.0002270615403149948</v>
+        <v>-0.0482386930922968</v>
       </c>
       <c r="G92">
-        <v>-0.4762691103712438</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04248427071091845</v>
+      </c>
+      <c r="H92">
+        <v>-0.1439273686195927</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09956367639028407</v>
+        <v>-0.2229897861396412</v>
       </c>
       <c r="C93">
-        <v>-0.0462662385786557</v>
+        <v>0.04876965558955016</v>
       </c>
       <c r="D93">
-        <v>-0.1004209744173282</v>
+        <v>-0.3280424765377555</v>
       </c>
       <c r="E93">
-        <v>0.4227667607047524</v>
+        <v>0.04078159462477764</v>
       </c>
       <c r="F93">
-        <v>0.05606842424174183</v>
+        <v>-0.1086543781869516</v>
       </c>
       <c r="G93">
-        <v>0.05232944217452143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05741356487487347</v>
+      </c>
+      <c r="H93">
+        <v>0.007360188825418331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2720696319846328</v>
+        <v>-0.2521643353864582</v>
       </c>
       <c r="C94">
-        <v>0.1023059545147172</v>
+        <v>0.09453281569693919</v>
       </c>
       <c r="D94">
-        <v>-0.2018855723397417</v>
+        <v>0.1358212455467829</v>
       </c>
       <c r="E94">
-        <v>-0.05990174257451199</v>
+        <v>0.03387780293112658</v>
       </c>
       <c r="F94">
-        <v>-0.2629782761576812</v>
+        <v>0.1865080006597947</v>
       </c>
       <c r="G94">
-        <v>0.05925179159051076</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1905438804398606</v>
+      </c>
+      <c r="H94">
+        <v>-0.1326198778186934</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07706737674832394</v>
+        <v>-0.05698669417307755</v>
       </c>
       <c r="C95">
-        <v>0.07297438156448999</v>
+        <v>0.03062538651405727</v>
       </c>
       <c r="D95">
-        <v>0.03201445936946035</v>
+        <v>0.09419899606744636</v>
       </c>
       <c r="E95">
-        <v>-0.1029947943673527</v>
+        <v>0.07793020575983803</v>
       </c>
       <c r="F95">
-        <v>0.009130202446634383</v>
+        <v>0.009516447622789874</v>
       </c>
       <c r="G95">
-        <v>-0.1954201685000767</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06149862229635464</v>
+      </c>
+      <c r="H95">
+        <v>0.008885233302341656</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1839195597822904</v>
+        <v>-0.1821730382483746</v>
       </c>
       <c r="C98">
-        <v>0.05037545170267299</v>
+        <v>0.07114155404995139</v>
       </c>
       <c r="D98">
-        <v>0.003074030926005208</v>
+        <v>0.04077857884942163</v>
       </c>
       <c r="E98">
-        <v>0.0784347308676783</v>
+        <v>0.05278635945420797</v>
       </c>
       <c r="F98">
-        <v>0.1251554557138691</v>
+        <v>0.000940804197294931</v>
       </c>
       <c r="G98">
-        <v>0.3458301264564394</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1430103181371859</v>
+      </c>
+      <c r="H98">
+        <v>0.3740238453758771</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005795377023306117</v>
+        <v>-0.01489579361970952</v>
       </c>
       <c r="C101">
-        <v>0.01191238241777203</v>
+        <v>-0.0005408237701830569</v>
       </c>
       <c r="D101">
-        <v>-0.004129691223674459</v>
+        <v>0.008861256117104144</v>
       </c>
       <c r="E101">
-        <v>-0.1091942610805083</v>
+        <v>-0.004541545745632795</v>
       </c>
       <c r="F101">
-        <v>0.1436679445278341</v>
+        <v>0.02176670001885981</v>
       </c>
       <c r="G101">
-        <v>-0.1232909024531555</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1057004163745962</v>
+      </c>
+      <c r="H101">
+        <v>-0.06420629501194308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1012254525871796</v>
+        <v>-0.1027899262101157</v>
       </c>
       <c r="C102">
-        <v>0.03043185767002432</v>
+        <v>0.03405186053665162</v>
       </c>
       <c r="D102">
-        <v>-0.04039275744712967</v>
+        <v>0.07891259066854089</v>
       </c>
       <c r="E102">
-        <v>-0.06648157597088736</v>
+        <v>0.002022857599375581</v>
       </c>
       <c r="F102">
-        <v>-0.1197370278021308</v>
+        <v>0.06611999719528262</v>
       </c>
       <c r="G102">
-        <v>-0.05015377309872003</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.08778887579715648</v>
+      </c>
+      <c r="H102">
+        <v>-0.05515320979671941</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02696283859589929</v>
+        <v>-0.01941956136791658</v>
       </c>
       <c r="C103">
-        <v>0.01110760784917273</v>
+        <v>0.007628167968560536</v>
       </c>
       <c r="D103">
-        <v>-0.01459994509243652</v>
+        <v>0.01829033137910886</v>
       </c>
       <c r="E103">
-        <v>-0.01604606834020867</v>
+        <v>-0.005939554682157178</v>
       </c>
       <c r="F103">
-        <v>-0.02165270161703027</v>
+        <v>0.01825235100510107</v>
       </c>
       <c r="G103">
-        <v>-0.02858300928906403</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.003514335651499542</v>
+      </c>
+      <c r="H103">
+        <v>-0.01099478935921674</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2792952903821431</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9436116879911631</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.001296503641291187</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02389071073574473</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1443771542705947</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.02604729386592331</v>
+      </c>
+      <c r="H104">
+        <v>-0.02893891284854421</v>
       </c>
     </row>
   </sheetData>
